--- a/data/trans_bre/P16A12-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16A12-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,08%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,89; 4,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; 6,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,72; 9,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 11,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,71; 183,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,31; 508,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,69; 192,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,56; 279,88</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,62%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,04; 1,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,45; 3,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,06; 1,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,66; 0,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,88; 24,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,87; 54,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,74; 21,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,26; 10,92</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,12%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 3,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 3,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,75; 2,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 1,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,64; 76,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,73; 71,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,49; 35,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,64; 31,15</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,33%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 3,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 4,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,44; 1,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,44; -0,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,3; 106,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,51; 94,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,32; 22,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,85; -4,0</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,08%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; 2,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 3,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 2,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,35; -0,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,62; 49,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,62; 44,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,7; 46,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,19; -3,29</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,05%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 1,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 2,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 1,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; -0,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,07; 29,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,67; 36,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,65; 14,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,28; -4,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A12-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-16,5%</t>
+          <t>-22,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>-10,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>76,08%</t>
+          <t>-3,46%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 4,49</t>
+          <t>-3,95; 0,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 6,96</t>
+          <t>-2,46; 2,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 9,27</t>
+          <t>-4,38; 2,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 11,43</t>
+          <t>-2,84; 2,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-74,71; 183,89</t>
+          <t>-52,37; 19,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-75,31; 508,82</t>
+          <t>-30,57; 52,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-54,69; 192,3</t>
+          <t>-38,36; 27,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 279,88</t>
+          <t>-25,85; 27,33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-23,14%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,43%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-14,51%</t>
+          <t>-3,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-18,62%</t>
+          <t>17,49%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 1,27</t>
+          <t>-0,77; 3,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 3,04</t>
+          <t>-0,79; 3,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 1,99</t>
+          <t>-2,75; 2,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 0,88</t>
+          <t>-1,34; 5,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,88; 24,53</t>
+          <t>-11,64; 76,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,87; 54,89</t>
+          <t>-10,73; 71,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,74; 21,91</t>
+          <t>-31,49; 35,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,26; 10,92</t>
+          <t>-16,01; 139,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,96%</t>
+          <t>-14,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,12%</t>
+          <t>-41,76%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,83</t>
+          <t>-0,82; 3,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,82</t>
+          <t>-0,76; 4,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,32</t>
+          <t>-4,44; 1,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,98</t>
+          <t>-6,68; -0,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 76,58</t>
+          <t>-16,3; 106,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 71,4</t>
+          <t>-9,51; 94,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-31,49; 35,04</t>
+          <t>-40,32; 22,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 31,15</t>
+          <t>-71,91; -12,93</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,07%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-14,77%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-32,33%</t>
+          <t>-27,64%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,74</t>
+          <t>-1,6; 2,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,8</t>
+          <t>-2,31; 3,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 1,63</t>
+          <t>-2,09; 2,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,44; -0,22</t>
+          <t>-4,62; -0,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 106,3</t>
+          <t>-26,62; 49,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 94,04</t>
+          <t>-21,62; 44,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,32; 22,73</t>
+          <t>-25,7; 46,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,85; -4,0</t>
+          <t>-44,34; -4,76</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>-6,22%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-25,08%</t>
+          <t>-14,96%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,1</t>
+          <t>-0,69; 1,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 3,35</t>
+          <t>-0,22; 2,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 2,84</t>
+          <t>-1,75; 1,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,35; -0,3</t>
+          <t>-2,73; 0,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 49,46</t>
+          <t>-11,07; 29,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 44,31</t>
+          <t>-2,67; 36,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-25,7; 46,35</t>
+          <t>-19,65; 14,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-40,19; -3,29</t>
+          <t>-30,21; 9,03</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>8,68%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>15,7%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-6,22%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-17,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 1,48</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,22; 2,43</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,75; 1,14</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,68; -0,38</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-11,07; 29,31</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 36,54</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-19,65; 14,98</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-28,28; -4,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P16A12-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 0,92</t>
+          <t>-3,92; 1,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,94</t>
+          <t>-2,87; 2,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 2,08</t>
+          <t>-4,09; 2,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 2,16</t>
+          <t>-2,95; 2,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-52,37; 19,71</t>
+          <t>-51,4; 22,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 52,19</t>
+          <t>-33,05; 50,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,36; 27,28</t>
+          <t>-36,43; 29,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 27,33</t>
+          <t>-26,58; 25,33</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,83</t>
+          <t>-0,89; 3,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,82</t>
+          <t>-0,82; 3,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,32</t>
+          <t>-2,47; 2,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 5,08</t>
+          <t>-1,42; 4,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 76,58</t>
+          <t>-12,87; 73,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 71,4</t>
+          <t>-11,22; 70,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,49; 35,04</t>
+          <t>-27,66; 29,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 139,62</t>
+          <t>-16,61; 112,86</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,74</t>
+          <t>-1,1; 3,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,8</t>
+          <t>-0,63; 4,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 1,63</t>
+          <t>-4,43; 1,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,68; -0,83</t>
+          <t>-6,81; -0,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 106,3</t>
+          <t>-20,32; 105,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 94,04</t>
+          <t>-8,63; 93,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-40,32; 22,73</t>
+          <t>-41,63; 21,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-71,91; -12,93</t>
+          <t>-70,22; -12,93</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,1</t>
+          <t>-1,52; 2,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 3,35</t>
+          <t>-2,15; 3,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 2,84</t>
+          <t>-1,99; 2,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,62; -0,37</t>
+          <t>-4,77; -0,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 49,46</t>
+          <t>-25,55; 55,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 44,31</t>
+          <t>-20,47; 44,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,7; 46,35</t>
+          <t>-24,29; 42,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,34; -4,76</t>
+          <t>-44,87; -5,33</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,48</t>
+          <t>-0,61; 1,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,43</t>
+          <t>-0,34; 2,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 1,14</t>
+          <t>-1,96; 0,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 0,72</t>
+          <t>-2,71; 0,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 29,31</t>
+          <t>-10,23; 31,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 36,54</t>
+          <t>-4,12; 36,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 14,98</t>
+          <t>-21,26; 10,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-30,21; 9,03</t>
+          <t>-31,18; 5,28</t>
         </is>
       </c>
     </row>
